--- a/uploads/Albaran_stock.picking.xlsx
+++ b/uploads/Albaran_stock.picking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>Operaciones/Albarán/Documento origen</t>
   </si>
@@ -40,79 +40,121 @@
     <t>Prioridad</t>
   </si>
   <si>
-    <t>S428280</t>
-  </si>
-  <si>
-    <t>COMPLEJO B * 10 ML ECAR</t>
-  </si>
-  <si>
-    <t>901352842-3</t>
-  </si>
-  <si>
-    <t>DOCTOR ESCALANTE SAS, CL 76 9 88</t>
-  </si>
-  <si>
-    <t>CL 76 9 88, 11001 BOGOTA, Cundinamarca, Colombia</t>
+    <t>S428824</t>
+  </si>
+  <si>
+    <t>CALMESSENS CAPSULAS 60 NUTRABIOTICS  CUM20038915-3</t>
+  </si>
+  <si>
+    <t>900827420-5</t>
+  </si>
+  <si>
+    <t>NEUROGADY SAS, CR 14 C 157 40 CA 27 CON ARKADIA</t>
+  </si>
+  <si>
+    <t>CR 14 C 157 40, BOGOTA BOGOTA, Cundinamarca, Colombia</t>
   </si>
   <si>
     <t>Urgente</t>
   </si>
   <si>
-    <t>AMP 10ML BICARBONATO DE SODIO</t>
-  </si>
-  <si>
-    <t>CALEND OVULOS  6 L H A</t>
-  </si>
-  <si>
-    <t>S428232</t>
-  </si>
-  <si>
-    <t>DIGRAX 500 MG X 60 CAPSULAS NATURASOL</t>
-  </si>
-  <si>
-    <t>1031166550</t>
-  </si>
-  <si>
-    <t>HERRERA LOPEZ ANGELICA, CL 92 7 A 4 AP 2101 QUINTESSENS MUSEO</t>
-  </si>
-  <si>
-    <t>CL 92 7 A 4, 11001 BOGOTA, Cundinamarca, Colombia</t>
+    <t>S428549</t>
+  </si>
+  <si>
+    <t>R-CORBACID(VITAMINA C)SOLUCION VIAL 10gr /100 ML (HEEL)</t>
+  </si>
+  <si>
+    <t>52797104</t>
+  </si>
+  <si>
+    <t>HERNANDEZ JULIETA, CL 145 7 F 78 ED BELMIRA 145 AP 1010</t>
+  </si>
+  <si>
+    <t>CL 145 7 F 78, 11001 BOGOTÁ D.C., Cundinamarca, Colombia</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>ENZYMEPRO CAPSULAS 60 SOLARAY</t>
-  </si>
-  <si>
-    <t>S428274</t>
-  </si>
-  <si>
-    <t>KYOLIC 300 MG CAPSULAS 100 MAGNA TRADE</t>
-  </si>
-  <si>
-    <t>79328113</t>
-  </si>
-  <si>
-    <t>ALEJANDRO CASTAÑEDA JARAMILLO, CR 9 84 40 AP 302 ED PORTAL DE CERVANTES</t>
-  </si>
-  <si>
-    <t>CR 9 84 40, BOGOTA BOGOTA, Cundinamarca, Colombia</t>
-  </si>
-  <si>
-    <t>S428221</t>
-  </si>
-  <si>
-    <t>PASED GOTAS 30ML L H A</t>
-  </si>
-  <si>
-    <t>1020750162</t>
-  </si>
-  <si>
-    <t>PELAEZ ORTIZ CRISTINA, CR 4  72 61 ED CERROS II AP 401</t>
-  </si>
-  <si>
-    <t>CR 4  72 61, 11001 BOGOTÁ D.C., Cundinamarca, Colombia</t>
+    <t>COENZYME COMPOSITUM AMP  2,2ML HEEL  CUM19957503-1</t>
+  </si>
+  <si>
+    <t>UBICHINON COMPOSITUM AMP  2,2ML HEEL  CUM19958429-1</t>
+  </si>
+  <si>
+    <t>CERECOMP AMP  2,2ML HEEL  CUM19957366-1</t>
+  </si>
+  <si>
+    <t>TRAUMEEL AMP  2,2ML HEEL  CUM19955265-1</t>
+  </si>
+  <si>
+    <t>LYMPHOMYOSOT AMP  1,1ML HEEL  CUM19961739-1</t>
+  </si>
+  <si>
+    <t>CLORURO DE SODIO 0.9 X500 ML BAXTER</t>
+  </si>
+  <si>
+    <t>JERINGA 20 ML AGUJA 21*1 BEGUT</t>
+  </si>
+  <si>
+    <t>S428702</t>
+  </si>
+  <si>
+    <t>INMUNOPLEX CAPSULAS 90 NUTRABIOTICS  CUM20038921-4</t>
+  </si>
+  <si>
+    <t>52387611</t>
+  </si>
+  <si>
+    <t>HERRERA  ANGELA MARIA, CR  7 G  146 21 CA 23 BRR CEDRITOS ENTRADA POR LA CALLE CERRADA</t>
+  </si>
+  <si>
+    <t>CR  7 G  146 21, 11001 BOGOTÁ D.C., Cundinamarca, Colombia</t>
+  </si>
+  <si>
+    <t>VEGEZYM FRASCO * 90 CAP NUTRABIOTICS  CUM20133404-3</t>
+  </si>
+  <si>
+    <t>LAXESSENS CAPSULAS 30 NUTRABIOTICS  CUM20045599-1</t>
+  </si>
+  <si>
+    <t>S428819</t>
+  </si>
+  <si>
+    <t>MEDIBIOTIX ENTERO-BALANCE * 10 SOBRES HEEL CUM20185628-1</t>
+  </si>
+  <si>
+    <t>52804928</t>
+  </si>
+  <si>
+    <t>LOPEZ ARANGO AMALIA, CR 6  151  80 AP 1801 TO 1 PINO FORESTA</t>
+  </si>
+  <si>
+    <t>CR 6  151  80, BOGOTA BOGOTA, Cundinamarca, Colombia</t>
+  </si>
+  <si>
+    <t>REN-HEEL * 50 TABLETAS HEEL  CUM20069375-1</t>
+  </si>
+  <si>
+    <t>LYMPHOMYOSOT TABLETAS 100 HEEL  CUM19958456-1</t>
+  </si>
+  <si>
+    <t>HEPEEL TABLETAS 50 HEEL  CUM19966383-1</t>
+  </si>
+  <si>
+    <t>S428810</t>
+  </si>
+  <si>
+    <t>GLIZIGEN SPRAY 60ML CATALYSIS</t>
+  </si>
+  <si>
+    <t>13749308</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES MARTINEZ MARTINEZ, CL 135 C 13 70 AP 401 ED KING DAVID BRR NUEVO COUNTRY</t>
+  </si>
+  <si>
+    <t>CL 135 C 13 70, 11001 BOGOTÁ D.C., Cundinamarca, Colombia</t>
   </si>
 </sst>
 </file>
@@ -463,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -518,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>45813.79166666666</v>
+        <v>45814.75043981482</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -526,152 +568,394 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3">
-        <v>45813.79166666666</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>45814.79166666666</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3">
-        <v>45813.79166666666</v>
+        <v>45814.79166666666</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="3">
-        <v>45813.75</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>45814.79166666666</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="3">
-        <v>45813.75</v>
+        <v>45814.79166666666</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3">
-        <v>45813.83333333334</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>45814.79166666666</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45814.79166666666</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45814.79166666666</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45814.79166666666</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G11" s="3">
+        <v>45814.79166666666</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3">
-        <v>45813.77083333334</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45814.79166666666</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45814.79166666666</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45814.8125</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45814.8125</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45814.8125</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45814.8125</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45814.8125</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/Albaran_stock.picking.xlsx
+++ b/uploads/Albaran_stock.picking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Operaciones/Albarán/Documento origen</t>
   </si>
@@ -40,121 +40,79 @@
     <t>Prioridad</t>
   </si>
   <si>
-    <t>S428824</t>
-  </si>
-  <si>
-    <t>CALMESSENS CAPSULAS 60 NUTRABIOTICS  CUM20038915-3</t>
-  </si>
-  <si>
-    <t>900827420-5</t>
-  </si>
-  <si>
-    <t>NEUROGADY SAS, CR 14 C 157 40 CA 27 CON ARKADIA</t>
-  </si>
-  <si>
-    <t>CR 14 C 157 40, BOGOTA BOGOTA, Cundinamarca, Colombia</t>
+    <t>S428280</t>
+  </si>
+  <si>
+    <t>COMPLEJO B * 10 ML ECAR</t>
+  </si>
+  <si>
+    <t>901352842-3</t>
+  </si>
+  <si>
+    <t>DOCTOR ESCALANTE SAS, CL 76 9 88</t>
+  </si>
+  <si>
+    <t>CL 76 9 88, 11001 BOGOTA, Cundinamarca, Colombia</t>
   </si>
   <si>
     <t>Urgente</t>
   </si>
   <si>
-    <t>S428549</t>
-  </si>
-  <si>
-    <t>R-CORBACID(VITAMINA C)SOLUCION VIAL 10gr /100 ML (HEEL)</t>
-  </si>
-  <si>
-    <t>52797104</t>
-  </si>
-  <si>
-    <t>HERNANDEZ JULIETA, CL 145 7 F 78 ED BELMIRA 145 AP 1010</t>
-  </si>
-  <si>
-    <t>CL 145 7 F 78, 11001 BOGOTÁ D.C., Cundinamarca, Colombia</t>
+    <t>AMP 10ML BICARBONATO DE SODIO</t>
+  </si>
+  <si>
+    <t>CALEND OVULOS  6 L H A</t>
+  </si>
+  <si>
+    <t>S428232</t>
+  </si>
+  <si>
+    <t>DIGRAX 500 MG X 60 CAPSULAS NATURASOL</t>
+  </si>
+  <si>
+    <t>1031166550</t>
+  </si>
+  <si>
+    <t>HERRERA LOPEZ ANGELICA, CL 92 7 A 4 AP 2101 QUINTESSENS MUSEO</t>
+  </si>
+  <si>
+    <t>CL 92 7 A 4, 11001 BOGOTA, Cundinamarca, Colombia</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>COENZYME COMPOSITUM AMP  2,2ML HEEL  CUM19957503-1</t>
-  </si>
-  <si>
-    <t>UBICHINON COMPOSITUM AMP  2,2ML HEEL  CUM19958429-1</t>
-  </si>
-  <si>
-    <t>CERECOMP AMP  2,2ML HEEL  CUM19957366-1</t>
-  </si>
-  <si>
-    <t>TRAUMEEL AMP  2,2ML HEEL  CUM19955265-1</t>
-  </si>
-  <si>
-    <t>LYMPHOMYOSOT AMP  1,1ML HEEL  CUM19961739-1</t>
-  </si>
-  <si>
-    <t>CLORURO DE SODIO 0.9 X500 ML BAXTER</t>
-  </si>
-  <si>
-    <t>JERINGA 20 ML AGUJA 21*1 BEGUT</t>
-  </si>
-  <si>
-    <t>S428702</t>
-  </si>
-  <si>
-    <t>INMUNOPLEX CAPSULAS 90 NUTRABIOTICS  CUM20038921-4</t>
-  </si>
-  <si>
-    <t>52387611</t>
-  </si>
-  <si>
-    <t>HERRERA  ANGELA MARIA, CR  7 G  146 21 CA 23 BRR CEDRITOS ENTRADA POR LA CALLE CERRADA</t>
-  </si>
-  <si>
-    <t>CR  7 G  146 21, 11001 BOGOTÁ D.C., Cundinamarca, Colombia</t>
-  </si>
-  <si>
-    <t>VEGEZYM FRASCO * 90 CAP NUTRABIOTICS  CUM20133404-3</t>
-  </si>
-  <si>
-    <t>LAXESSENS CAPSULAS 30 NUTRABIOTICS  CUM20045599-1</t>
-  </si>
-  <si>
-    <t>S428819</t>
-  </si>
-  <si>
-    <t>MEDIBIOTIX ENTERO-BALANCE * 10 SOBRES HEEL CUM20185628-1</t>
-  </si>
-  <si>
-    <t>52804928</t>
-  </si>
-  <si>
-    <t>LOPEZ ARANGO AMALIA, CR 6  151  80 AP 1801 TO 1 PINO FORESTA</t>
-  </si>
-  <si>
-    <t>CR 6  151  80, BOGOTA BOGOTA, Cundinamarca, Colombia</t>
-  </si>
-  <si>
-    <t>REN-HEEL * 50 TABLETAS HEEL  CUM20069375-1</t>
-  </si>
-  <si>
-    <t>LYMPHOMYOSOT TABLETAS 100 HEEL  CUM19958456-1</t>
-  </si>
-  <si>
-    <t>HEPEEL TABLETAS 50 HEEL  CUM19966383-1</t>
-  </si>
-  <si>
-    <t>S428810</t>
-  </si>
-  <si>
-    <t>GLIZIGEN SPRAY 60ML CATALYSIS</t>
-  </si>
-  <si>
-    <t>13749308</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES MARTINEZ MARTINEZ, CL 135 C 13 70 AP 401 ED KING DAVID BRR NUEVO COUNTRY</t>
-  </si>
-  <si>
-    <t>CL 135 C 13 70, 11001 BOGOTÁ D.C., Cundinamarca, Colombia</t>
+    <t>ENZYMEPRO CAPSULAS 60 SOLARAY</t>
+  </si>
+  <si>
+    <t>S428274</t>
+  </si>
+  <si>
+    <t>KYOLIC 300 MG CAPSULAS 100 MAGNA TRADE</t>
+  </si>
+  <si>
+    <t>79328113</t>
+  </si>
+  <si>
+    <t>ALEJANDRO CASTAÑEDA JARAMILLO, CR 9 84 40 AP 302 ED PORTAL DE CERVANTES</t>
+  </si>
+  <si>
+    <t>CR 9 84 40, BOGOTA BOGOTA, Cundinamarca, Colombia</t>
+  </si>
+  <si>
+    <t>S428221</t>
+  </si>
+  <si>
+    <t>PASED GOTAS 30ML L H A</t>
+  </si>
+  <si>
+    <t>1020750162</t>
+  </si>
+  <si>
+    <t>PELAEZ ORTIZ CRISTINA, CR 4  72 61 ED CERROS II AP 401</t>
+  </si>
+  <si>
+    <t>CR 4  72 61, 11001 BOGOTÁ D.C., Cundinamarca, Colombia</t>
   </si>
 </sst>
 </file>
@@ -505,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -560,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>45814.75043981482</v>
+        <v>45813.79166666666</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -568,394 +526,152 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3">
-        <v>45814.79166666666</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>45813.79166666666</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3">
-        <v>45814.79166666666</v>
+        <v>45813.79166666666</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45813.75</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45814.79166666666</v>
-      </c>
-      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3">
-        <v>45814.79166666666</v>
+        <v>45813.75</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3">
-        <v>45814.79166666666</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>45813.83333333334</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3">
-        <v>45814.79166666666</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45814.79166666666</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45814.79166666666</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45814.79166666666</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3">
-        <v>45814.79166666666</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3">
-        <v>45814.79166666666</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45814.8125</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45814.8125</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="3">
-        <v>45814.8125</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="3">
-        <v>45814.8125</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45814.8125</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
+        <v>45813.77083333334</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
